--- a/tf.xlsx
+++ b/tf.xlsx
@@ -14,7 +14,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Total Fitness: mean &amp; sex</t>
+  </si>
+  <si>
+    <t>Total Fitness: median &amp; sex</t>
+  </si>
+  <si>
+    <t>Total Fitness: mean &amp; alone</t>
+  </si>
+  <si>
+    <t>Total Fitness: median &amp; alone</t>
+  </si>
+  <si>
+    <t>results_1</t>
+  </si>
+  <si>
+    <t>results_2</t>
+  </si>
   <si>
     <t>name</t>
   </si>
@@ -55,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -64,13 +85,15 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,18 +113,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0">
         <v>1</v>
@@ -112,7 +135,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0">
         <v>1</v>
@@ -123,7 +146,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
@@ -134,7 +157,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
